--- a/trunk/cos/ass1/rrDiscuss.xlsx
+++ b/trunk/cos/ass1/rrDiscuss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="7332" windowHeight="4740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,11 +233,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="53492352"/>
-        <c:axId val="53506432"/>
+        <c:axId val="51702016"/>
+        <c:axId val="52044544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53492352"/>
+        <c:axId val="51702016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -263,14 +263,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53506432"/>
+        <c:crossAx val="52044544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53506432"/>
+        <c:axId val="52044544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -296,7 +296,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53492352"/>
+        <c:crossAx val="51702016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -309,7 +309,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -471,11 +471,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72939392"/>
-        <c:axId val="73025024"/>
+        <c:axId val="52066176"/>
+        <c:axId val="52080640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72939392"/>
+        <c:axId val="52066176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -500,14 +500,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73025024"/>
+        <c:crossAx val="52080640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73025024"/>
+        <c:axId val="52080640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -533,7 +533,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72939392"/>
+        <c:crossAx val="52066176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -546,7 +546,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -708,11 +708,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74644864"/>
-        <c:axId val="74888320"/>
+        <c:axId val="52368512"/>
+        <c:axId val="52370432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74644864"/>
+        <c:axId val="52368512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,14 +742,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74888320"/>
+        <c:crossAx val="52370432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74888320"/>
+        <c:axId val="52370432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +775,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74644864"/>
+        <c:crossAx val="52368512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -788,7 +788,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -950,11 +950,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74545408"/>
-        <c:axId val="74878976"/>
+        <c:axId val="52425088"/>
+        <c:axId val="52427008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74545408"/>
+        <c:axId val="52425088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,14 +979,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74878976"/>
+        <c:crossAx val="52427008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74878976"/>
+        <c:axId val="52427008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +1012,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74545408"/>
+        <c:crossAx val="52425088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1025,7 +1025,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1065,16 +1065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1443,7 +1443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21:E23"/>
     </sheetView>
   </sheetViews>

--- a/trunk/cos/ass1/rrDiscuss.xlsx
+++ b/trunk/cos/ass1/rrDiscuss.xlsx
@@ -233,11 +233,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51702016"/>
-        <c:axId val="52044544"/>
+        <c:axId val="49686784"/>
+        <c:axId val="49697536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51702016"/>
+        <c:axId val="49686784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -263,14 +263,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52044544"/>
+        <c:crossAx val="49697536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52044544"/>
+        <c:axId val="49697536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -296,7 +296,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51702016"/>
+        <c:crossAx val="49686784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -309,7 +309,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -471,11 +471,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="52066176"/>
-        <c:axId val="52080640"/>
+        <c:axId val="49719168"/>
+        <c:axId val="49737728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52066176"/>
+        <c:axId val="49719168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -500,14 +500,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52080640"/>
+        <c:crossAx val="49737728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52080640"/>
+        <c:axId val="49737728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -533,7 +533,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52066176"/>
+        <c:crossAx val="49719168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -546,7 +546,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -708,11 +708,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="52368512"/>
-        <c:axId val="52370432"/>
+        <c:axId val="49767552"/>
+        <c:axId val="49769472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52368512"/>
+        <c:axId val="49767552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,14 +742,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52370432"/>
+        <c:crossAx val="49769472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52370432"/>
+        <c:axId val="49769472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +775,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52368512"/>
+        <c:crossAx val="49767552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -788,7 +788,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -950,11 +950,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="52425088"/>
-        <c:axId val="52427008"/>
+        <c:axId val="52183424"/>
+        <c:axId val="52185344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52425088"/>
+        <c:axId val="52183424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,14 +979,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52427008"/>
+        <c:crossAx val="52185344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52427008"/>
+        <c:axId val="52185344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +1012,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52425088"/>
+        <c:crossAx val="52183424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1025,7 +1025,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1035,16 +1035,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1065,16 +1065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1095,16 +1095,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1125,16 +1125,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1443,7 +1443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
       <selection activeCell="B21" sqref="B21:E23"/>
     </sheetView>
   </sheetViews>
